--- a/HADoc/權限112.4.13.xlsx
+++ b/HADoc/權限112.4.13.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\HA doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\HAproject\HADoc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8104E6B2-FBF7-4D1F-B022-5D73D2DFAE74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{038FD1CB-46C6-4524-ABA0-DB63387DD967}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6EA5E690-9544-40D5-B387-34E1D802B483}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{6EA5E690-9544-40D5-B387-34E1D802B483}"/>
   </bookViews>
   <sheets>
     <sheet name="權限設定1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="163">
   <si>
     <t>行政管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -672,6 +672,14 @@
   </si>
   <si>
     <t>page_Auth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首頁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1139,7 +1147,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{300B6FC3-C0C3-4782-95B0-2619B645FEA9}">
   <dimension ref="A1:O36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -1723,10 +1731,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2337E66-CE3D-49C1-AC12-7758CC37544D}">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1751,346 +1759,355 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>162</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>95</v>
+        <v>161</v>
       </c>
       <c r="D2" s="10"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D3" s="10"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D4" s="10"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>67</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" t="s">
         <v>97</v>
       </c>
-      <c r="D4" s="10"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+      <c r="D5" s="10"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
         <v>153</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" t="s">
         <v>149</v>
       </c>
-      <c r="D5" s="10"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="D6" s="10"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>68</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>5</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
         <v>98</v>
       </c>
-      <c r="D6" s="10"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+      <c r="D7" s="10"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
         <v>154</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>150</v>
       </c>
-      <c r="D7" s="10"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="D8" s="10"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>69</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>155</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" t="s">
         <v>99</v>
       </c>
-      <c r="D8" s="10"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+      <c r="D9" s="10"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
         <v>156</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
         <v>151</v>
       </c>
-      <c r="D9" s="10"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="D10" s="10"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>70</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>157</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" t="s">
         <v>100</v>
       </c>
-      <c r="D10" s="10"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+      <c r="D11" s="10"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
         <v>158</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C12" t="s">
         <v>152</v>
-      </c>
-      <c r="D11" s="10"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>71</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>101</v>
       </c>
       <c r="D12" s="10"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D13" s="10"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D14" s="10"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B15" t="s">
-        <v>75</v>
+        <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D15" s="10"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D16" s="10"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D17" s="10"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D18" s="10"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D19" s="10"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>109</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="D20" s="10"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C22" t="s">
-        <v>111</v>
-      </c>
-      <c r="D22" s="10"/>
+        <v>110</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C23" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D23" s="10"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D24" s="10"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C25" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D25" s="10"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C26" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D26" s="10"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B27" t="s">
-        <v>88</v>
+        <v>28</v>
       </c>
       <c r="C27" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D27" s="10"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B28" t="s">
-        <v>159</v>
+        <v>88</v>
       </c>
       <c r="C28" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D28" s="10"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B29" t="s">
-        <v>30</v>
+        <v>159</v>
       </c>
       <c r="C29" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D29" s="10"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C30" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D30" s="10"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>91</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" t="s">
+        <v>119</v>
+      </c>
+      <c r="D31" s="10"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>125</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B32" t="s">
         <v>32</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C32" t="s">
         <v>160</v>
       </c>
     </row>
